--- a/report/TriggerReport.xlsx
+++ b/report/TriggerReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85014BD5-3113-4098-A59C-D10F9405D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF77229-A12E-46F9-B966-23E8C35C6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="960" windowWidth="16824" windowHeight="8964" xr2:uid="{4552F98D-9E27-4AA8-8D33-21F3A007166F}"/>
+    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" xr2:uid="{A865719A-AC91-4C7B-8C9C-B5C2D2C1743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3083343-10ED-48A9-87C7-BF6EFF000CF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64635F81-F52D-4193-AC21-D3D2D9E0E1EA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -448,7 +448,7 @@
         <v>44583</v>
       </c>
       <c r="E2" s="1">
-        <v>44747.686249999999</v>
+        <v>44748.655127314814</v>
       </c>
     </row>
   </sheetData>

--- a/report/TriggerReport.xlsx
+++ b/report/TriggerReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF77229-A12E-46F9-B966-23E8C35C6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE2BF7-FCCF-4B7D-B0C6-020B3D009657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" xr2:uid="{A865719A-AC91-4C7B-8C9C-B5C2D2C1743B}"/>
+    <workbookView xWindow="-20490" yWindow="3180" windowWidth="11970" windowHeight="6330" xr2:uid="{691D4588-789D-45D4-A8BD-3BE358A73E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64635F81-F52D-4193-AC21-D3D2D9E0E1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504CFEB8-2DB6-46F9-AB42-0B6AFBF139E7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -448,7 +448,7 @@
         <v>44583</v>
       </c>
       <c r="E2" s="1">
-        <v>44748.655127314814</v>
+        <v>44750.611747685187</v>
       </c>
     </row>
   </sheetData>
